--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33A4D64-3903-4410-B480-749DB7D9F040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="117">
   <si>
     <t>Sıra</t>
   </si>
@@ -223,9 +229,6 @@
     <t>C# tarihçesi ve kurulumu</t>
   </si>
   <si>
-    <t>C#da değişkenler</t>
-  </si>
-  <si>
     <t>C#da operatörler</t>
   </si>
   <si>
@@ -350,19 +353,31 @@
   </si>
   <si>
     <t>Javada Composition</t>
+  </si>
+  <si>
+    <t>Konu sahibi</t>
+  </si>
+  <si>
+    <t>Uğur Özşahin</t>
+  </si>
+  <si>
+    <t>C#'da Değişkenler</t>
+  </si>
+  <si>
+    <t>Konu İsminini Belirten Moderatör</t>
+  </si>
+  <si>
+    <t>Hilal ÇINAR</t>
+  </si>
+  <si>
+    <t>Serkan KESKİN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,11 +386,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -386,160 +408,36 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,192 +458,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -798,328 +516,65 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1377,33 +832,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="51.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1411,7 +874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1419,7 +882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1427,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1435,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1443,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1451,7 +914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1459,7 +922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1467,7 +930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1475,7 +938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1483,7 +946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1491,7 +954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1499,7 +962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1507,7 +970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1515,7 +978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1523,7 +986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1531,7 +994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1539,7 +1002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1547,7 +1010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1555,7 +1018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1563,7 +1026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1571,7 +1034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1579,15 +1042,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3">
+    <row r="24" spans="1:4" s="10" customFormat="1">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1595,7 +1064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1603,7 +1072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1611,7 +1080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1619,7 +1088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:4">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1627,7 +1096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1635,7 +1104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:4">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1643,7 +1112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1779,7 +1248,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:4">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -1787,15 +1256,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="3">
+    <row r="50" spans="1:4" s="15" customFormat="1">
+      <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -1803,7 +1278,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:4">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1811,7 +1286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:4">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -1819,7 +1294,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:4">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1827,7 +1302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:4">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -1835,7 +1310,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:4">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1843,7 +1318,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:4">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -1851,7 +1326,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:4">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -1859,7 +1334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:4">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -1867,7 +1342,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:4">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -1875,7 +1350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:4">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -1883,7 +1358,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:4">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -1891,7 +1366,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:4">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -1899,7 +1374,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:4">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -1907,7 +1382,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:4">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -1915,7 +1390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:4">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -1923,7 +1398,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:4">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -1931,7 +1406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:4">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -1939,100 +1414,106 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="5">
+    <row r="69" spans="1:4" s="15" customFormat="1">
+      <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="B69" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2040,7 +1521,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2048,7 +1529,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2056,7 +1537,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2064,7 +1545,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2072,7 +1553,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2080,7 +1561,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2088,7 +1569,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2096,7 +1577,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2104,7 +1585,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2112,7 +1593,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2120,7 +1601,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2128,7 +1609,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2136,7 +1617,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2144,7 +1625,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2152,7 +1633,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2160,7 +1641,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2168,7 +1649,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2176,7 +1657,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2184,7 +1665,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2192,7 +1673,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2200,7 +1681,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2208,7 +1689,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2216,7 +1697,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2224,7 +1705,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2232,7 +1713,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2240,7 +1721,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2248,7 +1729,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2256,7 +1737,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2264,7 +1745,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2272,7 +1753,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2280,11 +1761,11 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>